--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,10 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>доплатить 49,00 так как оплачено 1092,00</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -56,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,14 +91,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,11 +123,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -145,29 +153,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,222 +486,263 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F26:F27"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43239</v>
+        <v>43544</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>8241</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>9141</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>3043</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>3543</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43274</v>
+        <v>43588</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>8541</v>
+        <v>9810</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D13" si="0">C4-C2</f>
-        <v>300</v>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <v>669</v>
       </c>
       <c r="E4" s="6">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F13" si="1">D4*E4</f>
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>3057.3300000000004</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>3442.1200000000003</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3442.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>3243</v>
+        <v>3704</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E5" s="6">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>384.79</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43323</v>
+        <v>43667</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>8641</v>
+        <v>10010</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>1376</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>3293</v>
+        <v>3904</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E7" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43351</v>
+        <v>43692</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>8741</v>
+        <v>10310</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>1418.7</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1419.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>3343</v>
+        <v>3934</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>117.5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>71.7</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43386</v>
+        <v>43735</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>8941</v>
+        <v>10510</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D10:D17" si="2">C10-C8</f>
         <v>200</v>
       </c>
       <c r="E10" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>900</v>
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" ref="F10:F15" si="3">D10*E10</f>
+        <v>898</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>1141</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1092</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -699,40 +751,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>3343</v>
+        <v>4034</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E11" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43544</v>
+        <v>43815</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>9141</v>
+        <v>10710</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="E12" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>914</v>
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="3"/>
+        <v>898</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>1384</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1384</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -741,40 +802,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>3543</v>
+        <v>4234</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="E13" s="6">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>478</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="3"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43588</v>
+        <v>43829</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>9810</v>
+        <v>11310</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D19" si="2">C14-C12</f>
-        <v>669</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="E14" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" ref="F14:F19" si="3">D14*E14</f>
-        <v>3057.3300000000004</v>
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="3"/>
+        <v>2694</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>3058.5</v>
+      </c>
+      <c r="H14" s="10">
+        <v>3058.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -783,250 +853,145 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>3704</v>
+        <v>4384</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E15" s="6">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="9">
         <f t="shared" si="3"/>
-        <v>384.79</v>
-      </c>
+        <v>364.5</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43667</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="11">
+        <v>43902</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
-        <v>10010</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="12">
+        <v>11860</v>
+      </c>
+      <c r="D16" s="12">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="E16" s="6">
+        <v>550</v>
+      </c>
+      <c r="E16" s="13">
         <v>4.49</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="3"/>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
+      <c r="F16" s="14">
+        <f t="shared" ref="F16:F17" si="4">D16*E16</f>
+        <v>2469.5</v>
+      </c>
+      <c r="G16" s="15">
+        <f>SUM(F16,F17)</f>
+        <v>3320</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
-        <v>3904</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="12">
+        <v>4734</v>
+      </c>
+      <c r="D17" s="12">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2.39</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="3"/>
-        <v>478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="4"/>
+        <v>850.5</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43692</v>
+        <v>43910</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>10310</v>
+        <v>12700</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" ref="D18:D19" si="5">C18-C16</f>
+        <v>840</v>
       </c>
       <c r="E18" s="6">
         <v>4.49</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" si="3"/>
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
+        <v>3771.6000000000004</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>4588.08</v>
+      </c>
+      <c r="H18" s="10">
+        <v>4588.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>3934</v>
+        <v>5070</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>336</v>
       </c>
       <c r="E19" s="6">
-        <v>2.39</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="3"/>
-        <v>71.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43735</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10510</v>
-      </c>
-      <c r="D21" s="3">
-        <f>C21-C18</f>
-        <v>200</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F21" s="6">
-        <f>D21*E21</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4034</v>
-      </c>
-      <c r="D22" s="3">
-        <f>C22-C19</f>
-        <v>100</v>
-      </c>
-      <c r="E22" s="6">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F22" s="6">
-        <f>D22*E22</f>
-        <v>243.00000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="12" t="s">
+      <c r="F19" s="9">
+        <f t="shared" si="6"/>
+        <v>816.48</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>43815</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10710</v>
-      </c>
-      <c r="D24" s="3">
-        <f>C24-C21</f>
-        <v>200</v>
-      </c>
-      <c r="E24" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F24" s="6">
-        <f>D24*E24</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4234</v>
-      </c>
-      <c r="D25" s="3">
-        <f>C25-C22</f>
-        <v>200</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F25" s="6">
-        <f>D25*E25</f>
-        <v>486.00000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>43829</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>11310</v>
-      </c>
-      <c r="D26" s="3">
-        <f>C26-C24</f>
-        <v>600</v>
-      </c>
-      <c r="E26" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F26" s="6">
-        <f>D26*E26</f>
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>4384</v>
-      </c>
-      <c r="D27" s="3">
-        <f>C27-C25</f>
-        <v>150</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F27" s="6">
-        <f>D27*E27</f>
-        <v>364.5</v>
+      <c r="G20" s="10">
+        <f>SUM(G4:G19)</f>
+        <v>19728.400000000001</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H4:H19)</f>
+        <v>17752.599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>-1975.8000000000029</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -972,25 +972,76 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="4">
+        <v>43963</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>13486</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="7">C20-C18</f>
+        <v>786</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>3529.1400000000003</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>4712.55</v>
+      </c>
+      <c r="H20" s="10">
+        <v>4712.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5557</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="7"/>
+        <v>487</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="8"/>
+        <v>1183.4100000000001</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="10">
-        <f>SUM(G4:G19)</f>
-        <v>19728.400000000001</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H4:H19)</f>
-        <v>17752.599999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="10">
+        <f>SUM(G4:G21)</f>
+        <v>24440.95</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H4:H21)</f>
+        <v>22465.149999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
         <v>-1975.8000000000029</v>
       </c>
     </row>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1023,25 +1023,127 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>13686</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="9">C22-C20</f>
+        <v>200</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F23" si="10">D22*E22</f>
+        <v>898</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>1384</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5757</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="10"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44021</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>13886</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="11">C24-C22</f>
+        <v>200</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F25" si="12">D24*E24</f>
+        <v>898</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>1019.5</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1019.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5807</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="12"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10">
-        <f>SUM(G4:G21)</f>
-        <v>24440.95</v>
-      </c>
-      <c r="H22" s="10">
-        <f>SUM(H4:H21)</f>
-        <v>22465.149999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G26" s="10">
+        <f>SUM(G4:G25)</f>
+        <v>26844.45</v>
+      </c>
+      <c r="H26" s="10">
+        <f>SUM(H4:H25)</f>
+        <v>24868.649999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f>SUM(H22,-G22)</f>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <f>SUM(H26,-G26)</f>
         <v>-1975.8000000000029</v>
       </c>
     </row>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1125,25 +1125,76 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="4">
+        <v>44060</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>14086</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="13">C26-C24</f>
+        <v>200</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:F27" si="14">D26*E26</f>
+        <v>942</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>1069.5</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5857</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="14"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G28" s="10">
         <f>SUM(G4:G25)</f>
         <v>26844.45</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H28" s="10">
         <f>SUM(H4:H25)</f>
         <v>24868.649999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <f>SUM(H28,-G28)</f>
         <v>-1975.8000000000029</v>
       </c>
     </row>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1176,25 +1176,76 @@
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="A28" s="4">
+        <v>44088</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>14286</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="15">C28-C26</f>
+        <v>200</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28:F29" si="16">D28*E28</f>
+        <v>942</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SUM(F28,F29)</f>
+        <v>1197</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5957</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="16"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="10">
-        <f>SUM(G4:G25)</f>
-        <v>26844.45</v>
-      </c>
-      <c r="H28" s="10">
-        <f>SUM(H4:H25)</f>
-        <v>24868.649999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
+      <c r="G30" s="10">
+        <f>SUM(G4:G29)</f>
+        <v>29110.95</v>
+      </c>
+      <c r="H30" s="10">
+        <f>SUM(H4:H29)</f>
+        <v>27135.149999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10">
-        <f>SUM(H28,-G28)</f>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <f>SUM(H30,-G30)</f>
         <v>-1975.8000000000029</v>
       </c>
     </row>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -534,62 +534,62 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43544</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="11">
+        <v>43902</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>9141</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="12">
+        <v>11860</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>3543</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="C3" s="12">
+        <v>4734</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43588</v>
+        <v>43910</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>9810</v>
+        <v>12700</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>669</v>
+        <f>C4-C2</f>
+        <v>840</v>
       </c>
       <c r="E4" s="6">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>3057.3300000000004</v>
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <v>3771.6000000000004</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>3442.1200000000003</v>
+        <v>4588.08</v>
       </c>
       <c r="H4" s="10">
-        <v>3442.12</v>
+        <v>4588.08</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -598,49 +598,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>3704</v>
+        <v>5070</v>
       </c>
       <c r="D5" s="3">
+        <f>C5-C3</f>
+        <v>336</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>161</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.39</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="1"/>
-        <v>384.79</v>
+        <v>816.48</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43667</v>
+        <v>43963</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>10010</v>
+        <v>13486</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" ref="D6:D7" si="1">C6-C4</f>
+        <v>786</v>
       </c>
       <c r="E6" s="6">
         <v>4.49</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="1"/>
-        <v>898</v>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <v>3529.1400000000003</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>1376</v>
+        <v>4712.55</v>
       </c>
       <c r="H6" s="10">
-        <v>1384</v>
+        <v>4712.55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -649,49 +649,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>3904</v>
+        <v>5557</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>487</v>
       </c>
       <c r="E7" s="6">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="1"/>
-        <v>478</v>
+        <f t="shared" si="2"/>
+        <v>1183.4100000000001</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43692</v>
+        <v>44014</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>10310</v>
+        <v>13686</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" ref="D8:D9" si="3">C8-C6</f>
+        <v>200</v>
       </c>
       <c r="E8" s="6">
         <v>4.49</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="1"/>
-        <v>1347</v>
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>898</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>1418.7</v>
+        <v>1384</v>
       </c>
       <c r="H8" s="10">
-        <v>1419.9</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -700,49 +700,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>3934</v>
+        <v>5757</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="E9" s="6">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>71.7</v>
+        <f t="shared" si="4"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43735</v>
+        <v>44021</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>10510</v>
+        <v>13886</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D17" si="2">C10-C8</f>
+        <f t="shared" ref="D10:D11" si="5">C10-C8</f>
         <v>200</v>
       </c>
       <c r="E10" s="6">
         <v>4.49</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" ref="F10:F15" si="3">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
         <v>898</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1141</v>
+        <v>1019.5</v>
       </c>
       <c r="H10" s="10">
-        <v>1092</v>
+        <v>1019.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -751,49 +751,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>4034</v>
+        <v>5807</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="E11" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="3"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="6"/>
+        <v>121.50000000000001</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43815</v>
+        <v>44060</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>10710</v>
+        <v>14086</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D12:D13" si="7">C12-C10</f>
         <v>200</v>
       </c>
       <c r="E12" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="3"/>
-        <v>898</v>
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
+        <v>942</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1384</v>
+        <v>1069.5</v>
       </c>
       <c r="H12" s="10">
-        <v>1384</v>
+        <v>1069.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -802,49 +802,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>4234</v>
+        <v>5857</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="E13" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="3"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="8"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43829</v>
+        <v>44088</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>11310</v>
+        <v>14286</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" ref="D14:D15" si="9">C14-C12</f>
+        <v>200</v>
       </c>
       <c r="E14" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="3"/>
-        <v>2694</v>
+        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
+        <v>942</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>3058.5</v>
+        <v>1197</v>
       </c>
       <c r="H14" s="10">
-        <v>3058.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -853,406 +853,100 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>4384</v>
+        <v>5957</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="E15" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="3"/>
-        <v>364.5</v>
+        <f t="shared" si="10"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>43902</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="4">
+        <v>44123</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="12">
-        <v>11860</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="2"/>
-        <v>550</v>
-      </c>
-      <c r="E16" s="13">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="14">
-        <f t="shared" ref="F16:F17" si="4">D16*E16</f>
-        <v>2469.5</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="C16" s="3">
+        <v>14554</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="11">C16-C14</f>
+        <v>268</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="12">D16*E16</f>
+        <v>1262.28</v>
+      </c>
+      <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>3320</v>
-      </c>
-      <c r="H16" s="15">
-        <v>1384</v>
+        <v>1517.28</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1517.28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12">
-        <v>4734</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="4"/>
-        <v>850.5</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="C17" s="3">
+        <v>6057</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="12"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43910</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(G2:G15)</f>
+        <v>13970.630000000001</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H2:H15)</f>
+        <v>13970.630000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
         <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>12700</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="5">C18-C16</f>
-        <v>840</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
-        <v>3771.6000000000004</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(F18,F19)</f>
-        <v>4588.08</v>
-      </c>
-      <c r="H18" s="10">
-        <v>4588.08</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>5070</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="5"/>
-        <v>336</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="6"/>
-        <v>816.48</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43963</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>13486</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="7">C20-C18</f>
-        <v>786</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
-        <v>3529.1400000000003</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(F20,F21)</f>
-        <v>4712.55</v>
-      </c>
-      <c r="H20" s="10">
-        <v>4712.55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5557</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="7"/>
-        <v>487</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="8"/>
-        <v>1183.4100000000001</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44014</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>13686</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="9">C22-C20</f>
-        <v>200</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" ref="F22:F23" si="10">D22*E22</f>
-        <v>898</v>
-      </c>
-      <c r="G22" s="10">
-        <f>SUM(F22,F23)</f>
-        <v>1384</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5757</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="9"/>
-        <v>200</v>
-      </c>
-      <c r="E23" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="10"/>
-        <v>486.00000000000006</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44021</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>13886</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" ref="D24:D25" si="11">C24-C22</f>
-        <v>200</v>
-      </c>
-      <c r="E24" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" ref="F24:F25" si="12">D24*E24</f>
-        <v>898</v>
-      </c>
-      <c r="G24" s="10">
-        <f>SUM(F24,F25)</f>
-        <v>1019.5</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1019.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5807</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="12"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>44060</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>14086</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" ref="D26:D27" si="13">C26-C24</f>
-        <v>200</v>
-      </c>
-      <c r="E26" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F26" s="9">
-        <f t="shared" ref="F26:F27" si="14">D26*E26</f>
-        <v>942</v>
-      </c>
-      <c r="G26" s="10">
-        <f>SUM(F26,F27)</f>
-        <v>1069.5</v>
-      </c>
-      <c r="H26" s="10">
-        <v>1069.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5857</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F27" s="9">
-        <f t="shared" si="14"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>44088</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>14286</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" ref="D28:D29" si="15">C28-C26</f>
-        <v>200</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" ref="F28:F29" si="16">D28*E28</f>
-        <v>942</v>
-      </c>
-      <c r="G28" s="10">
-        <f>SUM(F28,F29)</f>
-        <v>1197</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>5957</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="E29" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="16"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="10">
-        <f>SUM(G4:G29)</f>
-        <v>29110.95</v>
-      </c>
-      <c r="H30" s="10">
-        <f>SUM(H4:H29)</f>
-        <v>27135.149999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10">
-        <f>SUM(H30,-G30)</f>
-        <v>-1975.8000000000029</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -921,25 +921,76 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4">
+        <v>44158</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15280</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="13">C18-C16</f>
+        <v>726</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="14">D18*E18</f>
+        <v>3419.46</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>4164.0599999999995</v>
+      </c>
+      <c r="H18" s="10">
+        <v>4164.0600000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6349</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="13"/>
+        <v>292</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="14"/>
+        <v>744.59999999999991</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G20" s="10">
         <f>SUM(G2:G15)</f>
         <v>13970.630000000001</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H20" s="10">
         <f>SUM(H2:H15)</f>
         <v>13970.630000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -47,12 +47,6 @@
   <si>
     <t>оплачено</t>
   </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>к доплате</t>
-  </si>
 </sst>
 </file>
 
@@ -61,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +85,31 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -140,10 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -166,9 +177,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -179,6 +187,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,7 +509,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A20" sqref="A20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -508,491 +528,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="14">
+        <v>44200</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16119</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-C4</f>
+        <v>839</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>3951.69</v>
+      </c>
+      <c r="G2" s="9">
+        <f>SUM(F2,F3)</f>
+        <v>5239.4400000000005</v>
+      </c>
+      <c r="H2" s="9">
+        <v>5239.4399999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6854</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3" si="1">C3-C5</f>
+        <v>505</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>1287.75</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>44158</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15280</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4-C6</f>
+        <v>726</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F19" si="2">D4*E4</f>
+        <v>3419.46</v>
+      </c>
+      <c r="G4" s="9">
+        <f>SUM(F4,F5)</f>
+        <v>4164.0599999999995</v>
+      </c>
+      <c r="H4" s="9">
+        <v>4164.0600000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6349</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D19" si="3">C5-C7</f>
+        <v>292</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="2"/>
+        <v>744.59999999999991</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44123</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14554</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="3"/>
+        <v>268</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>1262.28</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(F6,F7)</f>
+        <v>1517.28</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1517.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6057</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44088</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14286</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>942</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>1197</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5957</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44060</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14086</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>942</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>1069.5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13886</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>898</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>1019.5</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1019.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5807</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44014</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13686</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>898</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>1384</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5757</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13486</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>786</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="2"/>
+        <v>3529.1400000000003</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>4712.55</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4712.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5557</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>487</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>1183.4100000000001</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12700</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>3771.6000000000004</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>4588.08</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4588.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5070</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>336</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>816.48</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>43902</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C20" s="17">
         <v>11860</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C21" s="17">
         <v>4734</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43910</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>12700</v>
-      </c>
-      <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>840</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
-        <v>3771.6000000000004</v>
-      </c>
-      <c r="G4" s="10">
-        <f>SUM(F4,F5)</f>
-        <v>4588.08</v>
-      </c>
-      <c r="H4" s="10">
-        <v>4588.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>5070</v>
-      </c>
-      <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>336</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>816.48</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43963</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>13486</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="1">C6-C4</f>
-        <v>786</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
-        <v>3529.1400000000003</v>
-      </c>
-      <c r="G6" s="10">
-        <f>SUM(F6,F7)</f>
-        <v>4712.55</v>
-      </c>
-      <c r="H6" s="10">
-        <v>4712.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5557</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>487</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="2"/>
-        <v>1183.4100000000001</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44014</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>13686</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="3">C8-C6</f>
-        <v>200</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
-        <v>898</v>
-      </c>
-      <c r="G8" s="10">
-        <f>SUM(F8,F9)</f>
-        <v>1384</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5757</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="4"/>
-        <v>486.00000000000006</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44021</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>13886</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="5">C10-C8</f>
-        <v>200</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
-        <v>898</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(F10,F11)</f>
-        <v>1019.5</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1019.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5807</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="6"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44060</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>14086</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="7">C12-C10</f>
-        <v>200</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
-        <v>942</v>
-      </c>
-      <c r="G12" s="10">
-        <f>SUM(F12,F13)</f>
-        <v>1069.5</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1069.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5857</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="8"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44088</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>14286</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="9">C14-C12</f>
-        <v>200</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
-        <v>942</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>1197</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5957</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="10"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44123</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>14554</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="11">C16-C14</f>
-        <v>268</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="12">D16*E16</f>
-        <v>1262.28</v>
-      </c>
-      <c r="G16" s="10">
-        <f>SUM(F16,F17)</f>
-        <v>1517.28</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1517.28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6057</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="12"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44158</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>15280</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="13">C18-C16</f>
-        <v>726</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" ref="F18:F19" si="14">D18*E18</f>
-        <v>3419.46</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(F18,F19)</f>
-        <v>4164.0599999999995</v>
-      </c>
-      <c r="H18" s="10">
-        <v>4164.0600000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6349</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="13"/>
-        <v>292</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="14"/>
-        <v>744.59999999999991</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(G2:G15)</f>
-        <v>13970.630000000001</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H2:H15)</f>
-        <v>13970.630000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
-        <v>0</v>
-      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -197,6 +197,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,10 +510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H6" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,84 +557,84 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44200</v>
+        <v>44301</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>16119</v>
+        <v>18786</v>
       </c>
       <c r="D2" s="2">
-        <f>C2-C4</f>
-        <v>839</v>
+        <f t="shared" ref="D2:D10" si="0">C2-C4</f>
+        <v>752</v>
       </c>
       <c r="E2" s="5">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>3951.69</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>3541.92</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2,F3)</f>
-        <v>5239.4400000000005</v>
-      </c>
-      <c r="H2" s="9">
-        <v>5239.4399999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4633.32</v>
+      </c>
+      <c r="H2" s="13">
+        <v>4416.5200000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>6854</v>
+        <v>8291</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>505</v>
+        <f t="shared" si="0"/>
+        <v>428</v>
       </c>
       <c r="E3" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>1287.75</v>
+        <f t="shared" si="1"/>
+        <v>1091.3999999999999</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44158</v>
+        <v>44267</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>15280</v>
+        <v>18034</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C6</f>
-        <v>726</v>
+        <f t="shared" si="0"/>
+        <v>912</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F19" si="2">D4*E4</f>
-        <v>3419.46</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>4295.5199999999995</v>
       </c>
       <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
-        <v>4164.0599999999995</v>
-      </c>
-      <c r="H4" s="9">
-        <v>4164.0600000000004</v>
+        <v>5585.82</v>
+      </c>
+      <c r="H4" s="13">
+        <v>5324.46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -639,49 +643,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>6349</v>
+        <v>7863</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D19" si="3">C5-C7</f>
-        <v>292</v>
+        <f t="shared" si="0"/>
+        <v>506</v>
       </c>
       <c r="E5" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>744.59999999999991</v>
+        <v>1290.3</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44123</v>
+      <c r="A6" s="15">
+        <v>44236</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>14554</v>
+        <v>17122</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="3"/>
-        <v>268</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="2"/>
-        <v>1262.28</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>4724.13</v>
       </c>
       <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
-        <v>1517.28</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1517.28</v>
+        <v>6006.78</v>
+      </c>
+      <c r="H6" s="13">
+        <v>5725.76</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -690,49 +694,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>6057</v>
+        <v>7357</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>503</v>
       </c>
       <c r="E7" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="3"/>
+        <v>1282.6499999999999</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44088</v>
+      <c r="A8" s="15">
+        <v>44200</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>14286</v>
+        <v>16119</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>839</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="2"/>
-        <v>942</v>
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>3951.69</v>
       </c>
       <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
-        <v>1197</v>
+        <v>5239.4400000000005</v>
       </c>
       <c r="H8" s="9">
-        <v>1197</v>
+        <v>5239.4399999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -741,49 +745,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>5957</v>
+        <v>6854</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>505</v>
       </c>
       <c r="E9" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="4"/>
+        <v>1287.75</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44060</v>
+      <c r="A10" s="15">
+        <v>44158</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>14086</v>
+        <v>15280</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>726</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="2"/>
-        <v>942</v>
+        <f t="shared" ref="F10:F25" si="5">D10*E10</f>
+        <v>3419.46</v>
       </c>
       <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
-        <v>1069.5</v>
+        <v>4164.0599999999995</v>
       </c>
       <c r="H10" s="9">
-        <v>1069.5</v>
+        <v>4164.0600000000004</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -792,49 +796,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>5857</v>
+        <v>6349</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f t="shared" ref="D11:D25" si="6">C11-C13</f>
+        <v>292</v>
       </c>
       <c r="E11" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="2"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="5"/>
+        <v>744.59999999999991</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44021</v>
+        <v>44123</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>13886</v>
+        <v>14554</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>268</v>
       </c>
       <c r="E12" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="2"/>
-        <v>898</v>
+        <f t="shared" si="5"/>
+        <v>1262.28</v>
       </c>
       <c r="G12" s="9">
         <f>SUM(F12,F13)</f>
-        <v>1019.5</v>
+        <v>1517.28</v>
       </c>
       <c r="H12" s="9">
-        <v>1019.5</v>
+        <v>1517.28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -843,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>5807</v>
+        <v>6057</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E13" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="2"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="5"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44014</v>
+        <v>44088</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>13686</v>
+        <v>14286</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="E14" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="2"/>
-        <v>898</v>
+        <f t="shared" si="5"/>
+        <v>942</v>
       </c>
       <c r="G14" s="9">
         <f>SUM(F14,F15)</f>
-        <v>1384</v>
+        <v>1197</v>
       </c>
       <c r="H14" s="9">
-        <v>1384</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,49 +898,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>5757</v>
+        <v>5957</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E15" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="2"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="5"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43963</v>
+        <v>44060</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>13486</v>
+        <v>14086</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="3"/>
-        <v>786</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4.49</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="2"/>
-        <v>3529.1400000000003</v>
+        <f t="shared" si="5"/>
+        <v>942</v>
       </c>
       <c r="G16" s="9">
         <f>SUM(F16,F17)</f>
-        <v>4712.55</v>
+        <v>1069.5</v>
       </c>
       <c r="H16" s="9">
-        <v>4712.55</v>
+        <v>1069.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -945,49 +949,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>5557</v>
+        <v>5857</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="3"/>
-        <v>487</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2.4300000000000002</v>
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="2"/>
-        <v>1183.4100000000001</v>
+        <f t="shared" si="5"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>43910</v>
+        <v>44021</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>12700</v>
+        <v>13886</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="3"/>
-        <v>840</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E18" s="5">
         <v>4.49</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="2"/>
-        <v>3771.6000000000004</v>
+        <f t="shared" si="5"/>
+        <v>898</v>
       </c>
       <c r="G18" s="9">
         <f>SUM(F18,F19)</f>
-        <v>4588.08</v>
+        <v>1019.5</v>
       </c>
       <c r="H18" s="9">
-        <v>4588.08</v>
+        <v>1019.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -996,51 +1000,221 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>5070</v>
+        <v>5807</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="3"/>
-        <v>336</v>
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="E19" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="2"/>
-        <v>816.48</v>
+        <f t="shared" si="5"/>
+        <v>121.50000000000001</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="3">
+        <v>44014</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>13686</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="5"/>
+        <v>898</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>1384</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5757</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="5"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13486</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="6"/>
+        <v>786</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="5"/>
+        <v>3529.1400000000003</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(F22,F23)</f>
+        <v>4712.55</v>
+      </c>
+      <c r="H22" s="9">
+        <v>4712.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5557</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="6"/>
+        <v>487</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="5"/>
+        <v>1183.4100000000001</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12700</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="6"/>
+        <v>840</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="5"/>
+        <v>3771.6000000000004</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>4588.08</v>
+      </c>
+      <c r="H24" s="9">
+        <v>4588.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5070</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="6"/>
+        <v>336</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="5"/>
+        <v>816.48</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>43902</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B26" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C26" s="17">
         <v>11860</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C27" s="17">
         <v>4734</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="9">
+        <f>SUM(G2:G27)</f>
+        <v>41117.33</v>
+      </c>
+      <c r="H28" s="9">
+        <f>SUM(H2:H27)</f>
+        <v>40358.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="18"/>
+      <c r="H29" s="9">
+        <f>SUM(H28,-G28)</f>
+        <v>-759.18000000000029</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -510,10 +510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H6" sqref="H2:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,31 +559,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44301</v>
+        <v>44335</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>18786</v>
+        <v>19332</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D10" si="0">C2-C4</f>
-        <v>752</v>
+        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
+        <v>546</v>
       </c>
       <c r="E2" s="5">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>3541.92</v>
+        <v>2571.66</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2,F3)</f>
-        <v>4633.32</v>
+        <v>3260.16</v>
       </c>
       <c r="H2" s="13">
-        <v>4416.5200000000004</v>
+        <v>3107.64</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -592,49 +592,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>8291</v>
+        <v>8561</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>270</v>
       </c>
       <c r="E3" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>1091.3999999999999</v>
+        <v>688.5</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44267</v>
+        <v>44301</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>18034</v>
+        <v>18786</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>912</v>
+        <f t="shared" ref="D4:D12" si="2">C4-C6</f>
+        <v>752</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>4295.5199999999995</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>3541.92</v>
       </c>
       <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
-        <v>5585.82</v>
+        <v>4633.32</v>
       </c>
       <c r="H4" s="13">
-        <v>5324.46</v>
+        <v>4416.5200000000004</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,49 +643,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>7863</v>
+        <v>8291</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>506</v>
+        <f t="shared" si="2"/>
+        <v>428</v>
       </c>
       <c r="E5" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="2"/>
-        <v>1290.3</v>
+        <f t="shared" si="3"/>
+        <v>1091.3999999999999</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44236</v>
+        <v>44267</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>17122</v>
+        <v>18034</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>1003</v>
+        <f t="shared" si="2"/>
+        <v>912</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>4724.13</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>4295.5199999999995</v>
       </c>
       <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
-        <v>6006.78</v>
+        <v>5585.82</v>
       </c>
       <c r="H6" s="13">
-        <v>5725.76</v>
+        <v>5324.46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,49 +694,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>7357</v>
+        <v>7863</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>503</v>
+        <f t="shared" si="2"/>
+        <v>506</v>
       </c>
       <c r="E7" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
-        <v>1282.6499999999999</v>
+        <f t="shared" si="4"/>
+        <v>1290.3</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44200</v>
+        <v>44236</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>16119</v>
+        <v>17122</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>839</v>
+        <f t="shared" si="2"/>
+        <v>1003</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
-        <v>3951.69</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>4724.13</v>
       </c>
       <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
-        <v>5239.4400000000005</v>
-      </c>
-      <c r="H8" s="9">
-        <v>5239.4399999999996</v>
+        <v>6006.78</v>
+      </c>
+      <c r="H8" s="13">
+        <v>5725.76</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -745,49 +745,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>6854</v>
+        <v>7357</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>505</v>
+        <f t="shared" si="2"/>
+        <v>503</v>
       </c>
       <c r="E9" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="4"/>
-        <v>1287.75</v>
+        <f t="shared" si="5"/>
+        <v>1282.6499999999999</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>44158</v>
+        <v>44200</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>15280</v>
+        <v>16119</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>726</v>
+        <f t="shared" si="2"/>
+        <v>839</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F25" si="5">D10*E10</f>
-        <v>3419.46</v>
+        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <v>3951.69</v>
       </c>
       <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
-        <v>4164.0599999999995</v>
+        <v>5239.4400000000005</v>
       </c>
       <c r="H10" s="9">
-        <v>4164.0600000000004</v>
+        <v>5239.4399999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -796,49 +796,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>6349</v>
+        <v>6854</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D25" si="6">C11-C13</f>
-        <v>292</v>
+        <f t="shared" si="2"/>
+        <v>505</v>
       </c>
       <c r="E11" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="5"/>
-        <v>744.59999999999991</v>
+        <f t="shared" si="6"/>
+        <v>1287.75</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44123</v>
+      <c r="A12" s="15">
+        <v>44158</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>14554</v>
+        <v>15280</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="6"/>
-        <v>268</v>
+        <f t="shared" si="2"/>
+        <v>726</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="5"/>
-        <v>1262.28</v>
+        <f t="shared" ref="F12:F27" si="7">D12*E12</f>
+        <v>3419.46</v>
       </c>
       <c r="G12" s="9">
         <f>SUM(F12,F13)</f>
-        <v>1517.28</v>
+        <v>4164.0599999999995</v>
       </c>
       <c r="H12" s="9">
-        <v>1517.28</v>
+        <v>4164.0600000000004</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>6057</v>
+        <v>6349</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" ref="D13:D27" si="8">C13-C15</f>
+        <v>292</v>
       </c>
       <c r="E13" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="5"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="7"/>
+        <v>744.59999999999991</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44088</v>
+        <v>44123</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>14286</v>
+        <v>14554</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
-        <v>200</v>
+        <f t="shared" si="8"/>
+        <v>268</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="5"/>
-        <v>942</v>
+        <f t="shared" si="7"/>
+        <v>1262.28</v>
       </c>
       <c r="G14" s="9">
         <f>SUM(F14,F15)</f>
-        <v>1197</v>
+        <v>1517.28</v>
       </c>
       <c r="H14" s="9">
-        <v>1197</v>
+        <v>1517.28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -898,17 +898,17 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>5957</v>
+        <v>6057</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G15" s="9"/>
@@ -916,31 +916,31 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44060</v>
+        <v>44088</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>14086</v>
+        <v>14286</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>942</v>
       </c>
       <c r="G16" s="9">
         <f>SUM(F16,F17)</f>
-        <v>1069.5</v>
+        <v>1197</v>
       </c>
       <c r="H16" s="9">
-        <v>1069.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,49 +949,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>5857</v>
+        <v>5957</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="E17" s="19">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="5"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44021</v>
+        <v>44060</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>13886</v>
+        <v>14086</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="E18" s="5">
-        <v>4.49</v>
+      <c r="E18" s="19">
+        <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="5"/>
-        <v>898</v>
+        <f t="shared" si="7"/>
+        <v>942</v>
       </c>
       <c r="G18" s="9">
         <f>SUM(F18,F19)</f>
-        <v>1019.5</v>
+        <v>1069.5</v>
       </c>
       <c r="H18" s="9">
-        <v>1019.5</v>
+        <v>1069.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,49 +1000,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>5807</v>
+        <v>5857</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="E19" s="5">
-        <v>2.4300000000000002</v>
+      <c r="E19" s="19">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="5"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="7"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44014</v>
+        <v>44021</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>13686</v>
+        <v>13886</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="E20" s="5">
         <v>4.49</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>898</v>
       </c>
       <c r="G20" s="9">
         <f>SUM(F20,F21)</f>
-        <v>1384</v>
+        <v>1019.5</v>
       </c>
       <c r="H20" s="9">
-        <v>1384</v>
+        <v>1019.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1051,49 +1051,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>5757</v>
+        <v>5807</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
-        <v>200</v>
+        <f t="shared" si="8"/>
+        <v>50</v>
       </c>
       <c r="E21" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="5"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="7"/>
+        <v>121.50000000000001</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>43963</v>
+        <v>44014</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>13486</v>
+        <v>13686</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="6"/>
-        <v>786</v>
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E22" s="5">
         <v>4.49</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="5"/>
-        <v>3529.1400000000003</v>
+        <f t="shared" si="7"/>
+        <v>898</v>
       </c>
       <c r="G22" s="9">
         <f>SUM(F22,F23)</f>
-        <v>4712.55</v>
+        <v>1384</v>
       </c>
       <c r="H22" s="9">
-        <v>4712.55</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,49 +1102,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>5557</v>
+        <v>5757</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="6"/>
-        <v>487</v>
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E23" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="5"/>
-        <v>1183.4100000000001</v>
+        <f t="shared" si="7"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>43910</v>
+        <v>43963</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>12700</v>
+        <v>13486</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="6"/>
-        <v>840</v>
+        <f t="shared" si="8"/>
+        <v>786</v>
       </c>
       <c r="E24" s="5">
         <v>4.49</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="5"/>
-        <v>3771.6000000000004</v>
+        <f t="shared" si="7"/>
+        <v>3529.1400000000003</v>
       </c>
       <c r="G24" s="9">
         <f>SUM(F24,F25)</f>
-        <v>4588.08</v>
+        <v>4712.55</v>
       </c>
       <c r="H24" s="9">
-        <v>4588.08</v>
+        <v>4712.55</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1153,66 +1153,117 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>5070</v>
+        <v>5557</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="6"/>
-        <v>336</v>
+        <f t="shared" si="8"/>
+        <v>487</v>
       </c>
       <c r="E25" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="5"/>
-        <v>816.48</v>
+        <f t="shared" si="7"/>
+        <v>1183.4100000000001</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>12700</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="8"/>
+        <v>840</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="7"/>
+        <v>3771.6000000000004</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(F26,F27)</f>
+        <v>4588.08</v>
+      </c>
+      <c r="H26" s="9">
+        <v>4588.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5070</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="8"/>
+        <v>336</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="7"/>
+        <v>816.48</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>43902</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B28" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C28" s="17">
         <v>11860</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C29" s="17">
         <v>4734</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="9">
-        <f>SUM(G2:G27)</f>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="9">
+        <f>SUM(G4:G29)</f>
         <v>41117.33</v>
       </c>
-      <c r="H28" s="9">
-        <f>SUM(H2:H27)</f>
+      <c r="H30" s="9">
+        <f>SUM(H4:H29)</f>
         <v>40358.15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="18"/>
-      <c r="H29" s="9">
-        <f>SUM(H28,-G28)</f>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="18"/>
+      <c r="H31" s="9">
+        <f>SUM(H30,-G30)</f>
         <v>-759.18000000000029</v>
       </c>
     </row>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -510,10 +510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,31 +559,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44335</v>
+        <v>44389</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>19332</v>
+        <v>19638</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="E2" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2571.66</v>
+        <v>1517.76</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2,F3)</f>
-        <v>3260.16</v>
+        <v>1801.8400000000001</v>
       </c>
       <c r="H2" s="13">
-        <v>3107.64</v>
+        <v>1801.84</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -592,49 +592,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>8561</v>
+        <v>8667</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="E3" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>688.5</v>
+        <v>284.08000000000004</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44301</v>
+        <v>44335</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>18786</v>
+        <v>19332</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D12" si="2">C4-C6</f>
-        <v>752</v>
+        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
+        <v>546</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>3541.92</v>
+        <v>2571.66</v>
       </c>
       <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
-        <v>4633.32</v>
+        <v>3260.16</v>
       </c>
       <c r="H4" s="13">
-        <v>4416.5200000000004</v>
+        <v>3107.64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,49 +643,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>8291</v>
+        <v>8561</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>428</v>
+        <v>270</v>
       </c>
       <c r="E5" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>1091.3999999999999</v>
+        <v>688.5</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44267</v>
+        <v>44301</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>18034</v>
+        <v>18786</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>912</v>
+        <f t="shared" ref="D6:D14" si="4">C6-C8</f>
+        <v>752</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>4295.5199999999995</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>3541.92</v>
       </c>
       <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
-        <v>5585.82</v>
+        <v>4633.32</v>
       </c>
       <c r="H6" s="13">
-        <v>5324.46</v>
+        <v>4416.5200000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,49 +694,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>7863</v>
+        <v>8291</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>506</v>
+        <f t="shared" si="4"/>
+        <v>428</v>
       </c>
       <c r="E7" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="4"/>
-        <v>1290.3</v>
+        <f t="shared" si="5"/>
+        <v>1091.3999999999999</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44236</v>
+        <v>44267</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>17122</v>
+        <v>18034</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
-        <v>1003</v>
+        <f t="shared" si="4"/>
+        <v>912</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>4724.13</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>4295.5199999999995</v>
       </c>
       <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
-        <v>6006.78</v>
+        <v>5585.82</v>
       </c>
       <c r="H8" s="13">
-        <v>5725.76</v>
+        <v>5324.46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -745,49 +745,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>7357</v>
+        <v>7863</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>503</v>
+        <f t="shared" si="4"/>
+        <v>506</v>
       </c>
       <c r="E9" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="5"/>
-        <v>1282.6499999999999</v>
+        <f t="shared" si="6"/>
+        <v>1290.3</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>44200</v>
+        <v>44236</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>16119</v>
+        <v>17122</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>839</v>
+        <f t="shared" si="4"/>
+        <v>1003</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
-        <v>3951.69</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>4724.13</v>
       </c>
       <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
-        <v>5239.4400000000005</v>
-      </c>
-      <c r="H10" s="9">
-        <v>5239.4399999999996</v>
+        <v>6006.78</v>
+      </c>
+      <c r="H10" s="13">
+        <v>5725.76</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -796,49 +796,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>6854</v>
+        <v>7357</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>505</v>
+        <f t="shared" si="4"/>
+        <v>503</v>
       </c>
       <c r="E11" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="6"/>
-        <v>1287.75</v>
+        <f t="shared" si="7"/>
+        <v>1282.6499999999999</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>44158</v>
+        <v>44200</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>15280</v>
+        <v>16119</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>726</v>
+        <f t="shared" si="4"/>
+        <v>839</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F27" si="7">D12*E12</f>
-        <v>3419.46</v>
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
+        <v>3951.69</v>
       </c>
       <c r="G12" s="9">
         <f>SUM(F12,F13)</f>
-        <v>4164.0599999999995</v>
+        <v>5239.4400000000005</v>
       </c>
       <c r="H12" s="9">
-        <v>4164.0600000000004</v>
+        <v>5239.4399999999996</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>6349</v>
+        <v>6854</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D27" si="8">C13-C15</f>
-        <v>292</v>
+        <f t="shared" si="4"/>
+        <v>505</v>
       </c>
       <c r="E13" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="7"/>
-        <v>744.59999999999991</v>
+        <f t="shared" si="8"/>
+        <v>1287.75</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44123</v>
+      <c r="A14" s="15">
+        <v>44158</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>14554</v>
+        <v>15280</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="8"/>
-        <v>268</v>
+        <f t="shared" si="4"/>
+        <v>726</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="7"/>
-        <v>1262.28</v>
+        <f t="shared" ref="F14:F29" si="9">D14*E14</f>
+        <v>3419.46</v>
       </c>
       <c r="G14" s="9">
         <f>SUM(F14,F15)</f>
-        <v>1517.28</v>
+        <v>4164.0599999999995</v>
       </c>
       <c r="H14" s="9">
-        <v>1517.28</v>
+        <v>4164.0600000000004</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -898,49 +898,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>6057</v>
+        <v>6349</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="8"/>
-        <v>100</v>
+        <f t="shared" ref="D15:D29" si="10">C15-C17</f>
+        <v>292</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="7"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="9"/>
+        <v>744.59999999999991</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44088</v>
+        <v>44123</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>14286</v>
+        <v>14554</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="8"/>
-        <v>200</v>
+        <f t="shared" si="10"/>
+        <v>268</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="7"/>
-        <v>942</v>
+        <f t="shared" si="9"/>
+        <v>1262.28</v>
       </c>
       <c r="G16" s="9">
         <f>SUM(F16,F17)</f>
-        <v>1197</v>
+        <v>1517.28</v>
       </c>
       <c r="H16" s="9">
-        <v>1197</v>
+        <v>1517.28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,17 +949,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>5957</v>
+        <v>6057</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G17" s="9"/>
@@ -967,31 +967,31 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44060</v>
+        <v>44088</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>14086</v>
+        <v>14286</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="5">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>942</v>
       </c>
       <c r="G18" s="9">
         <f>SUM(F18,F19)</f>
-        <v>1069.5</v>
+        <v>1197</v>
       </c>
       <c r="H18" s="9">
-        <v>1069.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,49 +1000,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>5857</v>
+        <v>5957</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="E19" s="19">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E19" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="7"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="9"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44021</v>
+        <v>44060</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>13886</v>
+        <v>14086</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="E20" s="5">
-        <v>4.49</v>
+      <c r="E20" s="19">
+        <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="7"/>
-        <v>898</v>
+        <f t="shared" si="9"/>
+        <v>942</v>
       </c>
       <c r="G20" s="9">
         <f>SUM(F20,F21)</f>
-        <v>1019.5</v>
+        <v>1069.5</v>
       </c>
       <c r="H20" s="9">
-        <v>1019.5</v>
+        <v>1069.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1051,49 +1051,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>5807</v>
+        <v>5857</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E21" s="5">
-        <v>2.4300000000000002</v>
+      <c r="E21" s="19">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="7"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="9"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44014</v>
+        <v>44021</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>13686</v>
+        <v>13886</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="E22" s="5">
         <v>4.49</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>898</v>
       </c>
       <c r="G22" s="9">
         <f>SUM(F22,F23)</f>
-        <v>1384</v>
+        <v>1019.5</v>
       </c>
       <c r="H22" s="9">
-        <v>1384</v>
+        <v>1019.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,49 +1102,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>5757</v>
+        <v>5807</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="8"/>
-        <v>200</v>
+        <f t="shared" si="10"/>
+        <v>50</v>
       </c>
       <c r="E23" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="7"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="9"/>
+        <v>121.50000000000001</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>43963</v>
+        <v>44014</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>13486</v>
+        <v>13686</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="8"/>
-        <v>786</v>
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E24" s="5">
         <v>4.49</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="7"/>
-        <v>3529.1400000000003</v>
+        <f t="shared" si="9"/>
+        <v>898</v>
       </c>
       <c r="G24" s="9">
         <f>SUM(F24,F25)</f>
-        <v>4712.55</v>
+        <v>1384</v>
       </c>
       <c r="H24" s="9">
-        <v>4712.55</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1153,49 +1153,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>5557</v>
+        <v>5757</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="8"/>
-        <v>487</v>
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E25" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="7"/>
-        <v>1183.4100000000001</v>
+        <f t="shared" si="9"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43910</v>
+        <v>43963</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>12700</v>
+        <v>13486</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="8"/>
-        <v>840</v>
+        <f t="shared" si="10"/>
+        <v>786</v>
       </c>
       <c r="E26" s="5">
         <v>4.49</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="7"/>
-        <v>3771.6000000000004</v>
+        <f t="shared" si="9"/>
+        <v>3529.1400000000003</v>
       </c>
       <c r="G26" s="9">
         <f>SUM(F26,F27)</f>
-        <v>4588.08</v>
+        <v>4712.55</v>
       </c>
       <c r="H26" s="9">
-        <v>4588.08</v>
+        <v>4712.55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1204,66 +1204,117 @@
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>5070</v>
+        <v>5557</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="8"/>
-        <v>336</v>
+        <f t="shared" si="10"/>
+        <v>487</v>
       </c>
       <c r="E27" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="7"/>
-        <v>816.48</v>
+        <f t="shared" si="9"/>
+        <v>1183.4100000000001</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12700</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="10"/>
+        <v>840</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="9"/>
+        <v>3771.6000000000004</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(F28,F29)</f>
+        <v>4588.08</v>
+      </c>
+      <c r="H28" s="9">
+        <v>4588.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5070</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="10"/>
+        <v>336</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="9"/>
+        <v>816.48</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
         <v>43902</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="17">
+      <c r="B30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="17">
         <v>11860</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="17">
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="17">
         <v>4734</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="9">
-        <f>SUM(G4:G29)</f>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="9">
+        <f>SUM(G6:G31)</f>
         <v>41117.33</v>
       </c>
-      <c r="H30" s="9">
-        <f>SUM(H4:H29)</f>
+      <c r="H32" s="9">
+        <f>SUM(H6:H31)</f>
         <v>40358.15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G31" s="18"/>
-      <c r="H31" s="9">
-        <f>SUM(H30,-G30)</f>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="18"/>
+      <c r="H33" s="9">
+        <f>SUM(H32,-G32)</f>
         <v>-759.18000000000029</v>
       </c>
     </row>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>оплачено</t>
+  </si>
+  <si>
+    <t>доплата</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +206,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -510,10 +514,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,31 +563,29 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44389</v>
+        <v>44445</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>19638</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>306</v>
+      <c r="C2" s="10">
+        <v>19855</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="5">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1517.76</v>
+        <v>0</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2,F3)</f>
-        <v>1801.8400000000001</v>
-      </c>
-      <c r="H2" s="13">
-        <v>1801.84</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>911.7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,50 +593,50 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>8667</v>
+      <c r="C3" s="10">
+        <v>8753</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>106</v>
+        <f t="shared" ref="D2:D3" si="0">C3-C5</f>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="1"/>
-        <v>284.08000000000004</v>
+        <f t="shared" ref="F2:F3" si="1">D3*E3</f>
+        <v>0</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44335</v>
+        <v>44431</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>19332</v>
+      <c r="C4" s="10">
+        <v>19855</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>546</v>
+        <v>217</v>
       </c>
       <c r="E4" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>2571.66</v>
+        <v>1076.32</v>
       </c>
       <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
-        <v>3260.16</v>
-      </c>
-      <c r="H4" s="13">
-        <v>3107.64</v>
+        <v>1306.8</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1306.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -642,50 +644,50 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>8561</v>
+      <c r="C5" s="10">
+        <v>8753</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="E5" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>688.5</v>
+        <v>230.48000000000002</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44301</v>
+        <v>44389</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>18786</v>
+        <v>19638</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D14" si="4">C6-C8</f>
-        <v>752</v>
+        <f t="shared" ref="D6:D7" si="4">C6-C8</f>
+        <v>306</v>
       </c>
       <c r="E6" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>3541.92</v>
+        <v>1517.76</v>
       </c>
       <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
-        <v>4633.32</v>
-      </c>
-      <c r="H6" s="13">
-        <v>4416.5200000000004</v>
+        <v>1801.8400000000001</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1801.84</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,49 +696,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>8291</v>
+        <v>8667</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="4"/>
-        <v>428</v>
+        <v>106</v>
       </c>
       <c r="E7" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>1091.3999999999999</v>
+        <v>284.08000000000004</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44267</v>
+        <v>44335</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>18034</v>
+        <v>19332</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="4"/>
-        <v>912</v>
+        <f t="shared" ref="D8:D9" si="6">C8-C10</f>
+        <v>546</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>4295.5199999999995</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>2571.66</v>
       </c>
       <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
-        <v>5585.82</v>
-      </c>
-      <c r="H8" s="13">
-        <v>5324.46</v>
+        <v>3260.16</v>
+      </c>
+      <c r="H8" s="20">
+        <v>3107.64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -745,49 +747,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>7863</v>
+        <v>8561</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="4"/>
-        <v>506</v>
+        <f t="shared" si="6"/>
+        <v>270</v>
       </c>
       <c r="E9" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="6"/>
-        <v>1290.3</v>
+        <f t="shared" si="7"/>
+        <v>688.5</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>44236</v>
+        <v>44301</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>17122</v>
+        <v>18786</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="4"/>
-        <v>1003</v>
+        <f t="shared" ref="D10:D18" si="8">C10-C12</f>
+        <v>752</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>4724.13</v>
+        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
+        <v>3541.92</v>
       </c>
       <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
-        <v>6006.78</v>
-      </c>
-      <c r="H10" s="13">
-        <v>5725.76</v>
+        <v>4633.32</v>
+      </c>
+      <c r="H10" s="20">
+        <v>4416.5200000000004</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -796,49 +798,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>7357</v>
+        <v>8291</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="4"/>
-        <v>503</v>
+        <f t="shared" si="8"/>
+        <v>428</v>
       </c>
       <c r="E11" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="7"/>
-        <v>1282.6499999999999</v>
+        <f t="shared" si="9"/>
+        <v>1091.3999999999999</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>44200</v>
+        <v>44267</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>16119</v>
+        <v>18034</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="4"/>
-        <v>839</v>
+        <f t="shared" si="8"/>
+        <v>912</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
-        <v>3951.69</v>
+        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
+        <v>4295.5199999999995</v>
       </c>
       <c r="G12" s="9">
         <f>SUM(F12,F13)</f>
-        <v>5239.4400000000005</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5239.4399999999996</v>
+        <v>5585.82</v>
+      </c>
+      <c r="H12" s="20">
+        <v>5324.46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,49 +849,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>6854</v>
+        <v>7863</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="4"/>
-        <v>505</v>
+        <f t="shared" si="8"/>
+        <v>506</v>
       </c>
       <c r="E13" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="8"/>
-        <v>1287.75</v>
+        <f t="shared" si="10"/>
+        <v>1290.3</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>44158</v>
+        <v>44236</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>15280</v>
+        <v>17122</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="4"/>
-        <v>726</v>
+        <f t="shared" si="8"/>
+        <v>1003</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F29" si="9">D14*E14</f>
-        <v>3419.46</v>
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>4724.13</v>
       </c>
       <c r="G14" s="9">
         <f>SUM(F14,F15)</f>
-        <v>4164.0599999999995</v>
-      </c>
-      <c r="H14" s="9">
-        <v>4164.0600000000004</v>
+        <v>6006.78</v>
+      </c>
+      <c r="H14" s="20">
+        <v>5725.76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -898,49 +900,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>6349</v>
+        <v>7357</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:D29" si="10">C15-C17</f>
-        <v>292</v>
+        <f t="shared" si="8"/>
+        <v>503</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="9"/>
-        <v>744.59999999999991</v>
+        <f t="shared" si="11"/>
+        <v>1282.6499999999999</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44123</v>
+      <c r="A16" s="15">
+        <v>44200</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>14554</v>
+        <v>16119</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="10"/>
-        <v>268</v>
+        <f t="shared" si="8"/>
+        <v>839</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="9"/>
-        <v>1262.28</v>
+        <f t="shared" ref="F16:F17" si="12">D16*E16</f>
+        <v>3951.69</v>
       </c>
       <c r="G16" s="9">
         <f>SUM(F16,F17)</f>
-        <v>1517.28</v>
+        <v>5239.4400000000005</v>
       </c>
       <c r="H16" s="9">
-        <v>1517.28</v>
+        <v>5239.4399999999996</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,49 +951,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>6057</v>
+        <v>6854</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="10"/>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>505</v>
       </c>
       <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="9"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="12"/>
+        <v>1287.75</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44088</v>
+      <c r="A18" s="15">
+        <v>44158</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>14286</v>
+        <v>15280</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="10"/>
-        <v>200</v>
+        <f t="shared" si="8"/>
+        <v>726</v>
       </c>
       <c r="E18" s="5">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="9"/>
-        <v>942</v>
+        <f t="shared" ref="F18:F33" si="13">D18*E18</f>
+        <v>3419.46</v>
       </c>
       <c r="G18" s="9">
         <f>SUM(F18,F19)</f>
-        <v>1197</v>
+        <v>4164.0599999999995</v>
       </c>
       <c r="H18" s="9">
-        <v>1197</v>
+        <v>4164.0600000000004</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,49 +1002,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>5957</v>
+        <v>6349</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="10"/>
-        <v>100</v>
+        <f t="shared" ref="D19:D33" si="14">C19-C21</f>
+        <v>292</v>
       </c>
       <c r="E19" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="9"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="13"/>
+        <v>744.59999999999991</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44060</v>
+        <v>44123</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>14086</v>
+        <v>14554</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="E20" s="19">
+        <f t="shared" si="14"/>
+        <v>268</v>
+      </c>
+      <c r="E20" s="5">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="9"/>
-        <v>942</v>
+        <f t="shared" si="13"/>
+        <v>1262.28</v>
       </c>
       <c r="G20" s="9">
         <f>SUM(F20,F21)</f>
-        <v>1069.5</v>
+        <v>1517.28</v>
       </c>
       <c r="H20" s="9">
-        <v>1069.5</v>
+        <v>1517.28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1051,49 +1053,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>5857</v>
+        <v>6057</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="E21" s="19">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="9"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="13"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44021</v>
+        <v>44088</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>13886</v>
+        <v>14286</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="E22" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="9"/>
-        <v>898</v>
+        <f t="shared" si="13"/>
+        <v>942</v>
       </c>
       <c r="G22" s="9">
         <f>SUM(F22,F23)</f>
-        <v>1019.5</v>
+        <v>1197</v>
       </c>
       <c r="H22" s="9">
-        <v>1019.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,49 +1104,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>5807</v>
+        <v>5957</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="10"/>
-        <v>50</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E23" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="9"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="13"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44014</v>
+        <v>44060</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>13686</v>
+        <v>14086</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="E24" s="5">
-        <v>4.49</v>
+      <c r="E24" s="19">
+        <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="9"/>
-        <v>898</v>
+        <f t="shared" si="13"/>
+        <v>942</v>
       </c>
       <c r="G24" s="9">
         <f>SUM(F24,F25)</f>
-        <v>1384</v>
+        <v>1069.5</v>
       </c>
       <c r="H24" s="9">
-        <v>1384</v>
+        <v>1069.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1153,49 +1155,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>5757</v>
+        <v>5857</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="E25" s="5">
-        <v>2.4300000000000002</v>
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="E25" s="19">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="9"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="13"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43963</v>
+        <v>44021</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>13486</v>
+        <v>13886</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="10"/>
-        <v>786</v>
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E26" s="5">
         <v>4.49</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="9"/>
-        <v>3529.1400000000003</v>
+        <f t="shared" si="13"/>
+        <v>898</v>
       </c>
       <c r="G26" s="9">
         <f>SUM(F26,F27)</f>
-        <v>4712.55</v>
+        <v>1019.5</v>
       </c>
       <c r="H26" s="9">
-        <v>4712.55</v>
+        <v>1019.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1204,49 +1206,49 @@
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>5557</v>
+        <v>5807</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="10"/>
-        <v>487</v>
+        <f t="shared" si="14"/>
+        <v>50</v>
       </c>
       <c r="E27" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="9"/>
-        <v>1183.4100000000001</v>
+        <f t="shared" si="13"/>
+        <v>121.50000000000001</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>43910</v>
+        <v>44014</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>12700</v>
+        <v>13686</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="10"/>
-        <v>840</v>
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E28" s="5">
         <v>4.49</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="9"/>
-        <v>3771.6000000000004</v>
+        <f t="shared" si="13"/>
+        <v>898</v>
       </c>
       <c r="G28" s="9">
         <f>SUM(F28,F29)</f>
-        <v>4588.08</v>
+        <v>1384</v>
       </c>
       <c r="H28" s="9">
-        <v>4588.08</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,73 +1257,175 @@
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>5070</v>
+        <v>5757</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="10"/>
-        <v>336</v>
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E29" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="9"/>
-        <v>816.48</v>
+        <f t="shared" si="13"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>13486</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="14"/>
+        <v>786</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="13"/>
+        <v>3529.1400000000003</v>
+      </c>
+      <c r="G30" s="9">
+        <f>SUM(F30,F31)</f>
+        <v>4712.55</v>
+      </c>
+      <c r="H30" s="9">
+        <v>4712.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5557</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="14"/>
+        <v>487</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="13"/>
+        <v>1183.4100000000001</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>12700</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="14"/>
+        <v>840</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="13"/>
+        <v>3771.6000000000004</v>
+      </c>
+      <c r="G32" s="9">
+        <f>SUM(F32,F33)</f>
+        <v>4588.08</v>
+      </c>
+      <c r="H32" s="9">
+        <v>4588.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5070</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="14"/>
+        <v>336</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="13"/>
+        <v>816.48</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>43902</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="17">
+      <c r="B34" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17">
         <v>11860</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="17">
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="17">
         <v>4734</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="9">
-        <f>SUM(G6:G31)</f>
-        <v>41117.33</v>
-      </c>
-      <c r="H32" s="9">
-        <f>SUM(H6:H31)</f>
-        <v>40358.15</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G33" s="18"/>
-      <c r="H33" s="9">
-        <f>SUM(H32,-G32)</f>
-        <v>-759.18000000000029</v>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="9">
+        <f>SUM(G2:G35)</f>
+        <v>47486.13</v>
+      </c>
+      <c r="H36" s="9">
+        <f>SUM(H2:H35)</f>
+        <v>47486.130000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="18"/>
+      <c r="H37" s="9">
+        <f>SUM(H36,-G36)</f>
+        <v>7.2759576141834259E-12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -514,10 +514,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -563,29 +563,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44445</v>
+        <v>44501</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>19855</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>21437</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
+        <v>1383</v>
       </c>
       <c r="E2" s="5">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>6859.68</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2,F3)</f>
-        <v>0</v>
+        <v>8328.32</v>
       </c>
       <c r="H2" s="20">
-        <v>911.7</v>
+        <v>8328.32</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -594,49 +596,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>8753</v>
+        <v>9351</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D2:D3" si="0">C3-C5</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>548</v>
       </c>
       <c r="E3" s="5">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F2:F3" si="1">D3*E3</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1468.64</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44431</v>
+        <v>44494</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>19855</v>
+        <v>20054</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E4" s="5">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1076.32</v>
+        <f t="shared" ref="F4" si="3">D4*E4</f>
+        <v>987.04</v>
       </c>
       <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
-        <v>1306.8</v>
+        <v>1121.04</v>
       </c>
       <c r="H4" s="20">
-        <v>1306.8</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -645,49 +647,47 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>8753</v>
+        <v>8803</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="3"/>
-        <v>230.48000000000002</v>
+        <f t="shared" ref="F5" si="4">D5*E5</f>
+        <v>134</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44389</v>
+        <v>44445</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <v>19638</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="4">C6-C8</f>
-        <v>306</v>
+      <c r="C6" s="10">
+        <v>19855</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1517.76</v>
+        <v>0</v>
       </c>
       <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
-        <v>1801.8400000000001</v>
+        <v>0</v>
       </c>
       <c r="H6" s="20">
-        <v>1801.84</v>
+        <v>911.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -695,50 +695,50 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>8667</v>
+      <c r="C7" s="10">
+        <v>8753</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="4"/>
-        <v>106</v>
+        <f t="shared" ref="D7" si="5">C7-C9</f>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
         <v>2.68</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="5"/>
-        <v>284.08000000000004</v>
+        <f t="shared" ref="F7" si="6">D7*E7</f>
+        <v>0</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44335</v>
+        <v>44431</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
-        <v>19332</v>
+      <c r="C8" s="10">
+        <v>19855</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="6">C8-C10</f>
-        <v>546</v>
+        <f t="shared" ref="D8:D9" si="7">C8-C10</f>
+        <v>217</v>
       </c>
       <c r="E8" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>2571.66</v>
+        <f t="shared" ref="F8:F9" si="8">D8*E8</f>
+        <v>1076.32</v>
       </c>
       <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
-        <v>3260.16</v>
+        <v>1306.8</v>
       </c>
       <c r="H8" s="20">
-        <v>3107.64</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -746,50 +746,50 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
-        <v>8561</v>
+      <c r="C9" s="10">
+        <v>8753</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="6"/>
-        <v>270</v>
+        <f t="shared" si="7"/>
+        <v>86</v>
       </c>
       <c r="E9" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="7"/>
-        <v>688.5</v>
+        <f t="shared" si="8"/>
+        <v>230.48000000000002</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>44301</v>
+        <v>44389</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>18786</v>
+        <v>19638</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D18" si="8">C10-C12</f>
-        <v>752</v>
+        <f t="shared" ref="D10:D11" si="9">C10-C12</f>
+        <v>306</v>
       </c>
       <c r="E10" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
-        <v>3541.92</v>
+        <f t="shared" ref="F10:F11" si="10">D10*E10</f>
+        <v>1517.76</v>
       </c>
       <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
-        <v>4633.32</v>
+        <v>1801.8400000000001</v>
       </c>
       <c r="H10" s="20">
-        <v>4416.5200000000004</v>
+        <v>1801.84</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,49 +798,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>8291</v>
+        <v>8667</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="8"/>
-        <v>428</v>
+        <f t="shared" si="9"/>
+        <v>106</v>
       </c>
       <c r="E11" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="9"/>
-        <v>1091.3999999999999</v>
+        <f t="shared" si="10"/>
+        <v>284.08000000000004</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>44267</v>
+        <v>44335</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>18034</v>
+        <v>19332</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="8"/>
-        <v>912</v>
+        <f t="shared" ref="D12:D13" si="11">C12-C14</f>
+        <v>546</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>4295.5199999999995</v>
-      </c>
-      <c r="G12" s="9">
+        <f t="shared" ref="F12:F13" si="12">D12*E12</f>
+        <v>2571.66</v>
+      </c>
+      <c r="G12" s="13">
         <f>SUM(F12,F13)</f>
-        <v>5585.82</v>
-      </c>
-      <c r="H12" s="20">
-        <v>5324.46</v>
+        <v>3260.16</v>
+      </c>
+      <c r="H12" s="13">
+        <v>3107.64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -849,49 +849,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>7863</v>
+        <v>8561</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="8"/>
-        <v>506</v>
+        <f t="shared" si="11"/>
+        <v>270</v>
       </c>
       <c r="E13" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="10"/>
-        <v>1290.3</v>
+        <f t="shared" si="12"/>
+        <v>688.5</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>44236</v>
+        <v>44301</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>17122</v>
+        <v>18786</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="8"/>
-        <v>1003</v>
+        <f t="shared" ref="D14:D22" si="13">C14-C16</f>
+        <v>752</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
-        <v>4724.13</v>
-      </c>
-      <c r="G14" s="9">
+        <f t="shared" ref="F14:F15" si="14">D14*E14</f>
+        <v>3541.92</v>
+      </c>
+      <c r="G14" s="13">
         <f>SUM(F14,F15)</f>
-        <v>6006.78</v>
-      </c>
-      <c r="H14" s="20">
-        <v>5725.76</v>
+        <v>4633.32</v>
+      </c>
+      <c r="H14" s="13">
+        <v>4416.5200000000004</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -900,49 +900,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>7357</v>
+        <v>8291</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="8"/>
-        <v>503</v>
+        <f t="shared" si="13"/>
+        <v>428</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="11"/>
-        <v>1282.6499999999999</v>
+        <f t="shared" si="14"/>
+        <v>1091.3999999999999</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>44200</v>
+        <v>44267</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>16119</v>
+        <v>18034</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="8"/>
-        <v>839</v>
+        <f t="shared" si="13"/>
+        <v>912</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="12">D16*E16</f>
-        <v>3951.69</v>
-      </c>
-      <c r="G16" s="9">
+        <f t="shared" ref="F16:F17" si="15">D16*E16</f>
+        <v>4295.5199999999995</v>
+      </c>
+      <c r="G16" s="13">
         <f>SUM(F16,F17)</f>
-        <v>5239.4400000000005</v>
-      </c>
-      <c r="H16" s="9">
-        <v>5239.4399999999996</v>
+        <v>5585.82</v>
+      </c>
+      <c r="H16" s="13">
+        <v>5324.46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -951,49 +951,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>6854</v>
+        <v>7863</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>505</v>
+        <f t="shared" si="13"/>
+        <v>506</v>
       </c>
       <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="12"/>
-        <v>1287.75</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+        <f t="shared" si="15"/>
+        <v>1290.3</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <v>44158</v>
+        <v>44236</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>15280</v>
+        <v>17122</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="8"/>
-        <v>726</v>
+        <f t="shared" si="13"/>
+        <v>1003</v>
       </c>
       <c r="E18" s="5">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F33" si="13">D18*E18</f>
-        <v>3419.46</v>
-      </c>
-      <c r="G18" s="9">
+        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
+        <v>4724.13</v>
+      </c>
+      <c r="G18" s="13">
         <f>SUM(F18,F19)</f>
-        <v>4164.0599999999995</v>
-      </c>
-      <c r="H18" s="9">
-        <v>4164.0600000000004</v>
+        <v>6006.78</v>
+      </c>
+      <c r="H18" s="13">
+        <v>5725.76</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1002,49 +1002,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>6349</v>
+        <v>7357</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:D33" si="14">C19-C21</f>
-        <v>292</v>
+        <f t="shared" si="13"/>
+        <v>503</v>
       </c>
       <c r="E19" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
+        <f t="shared" si="16"/>
+        <v>1282.6499999999999</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>44200</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16119</v>
+      </c>
+      <c r="D20" s="2">
         <f t="shared" si="13"/>
-        <v>744.59999999999991</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44123</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>14554</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="14"/>
-        <v>268</v>
+        <v>839</v>
       </c>
       <c r="E20" s="5">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="13"/>
-        <v>1262.28</v>
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>3951.69</v>
       </c>
       <c r="G20" s="9">
         <f>SUM(F20,F21)</f>
-        <v>1517.28</v>
+        <v>5239.4400000000005</v>
       </c>
       <c r="H20" s="9">
-        <v>1517.28</v>
+        <v>5239.4399999999996</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1053,49 +1053,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>6057</v>
+        <v>6854</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="14"/>
-        <v>100</v>
+        <f t="shared" si="13"/>
+        <v>505</v>
       </c>
       <c r="E21" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="13"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="17"/>
+        <v>1287.75</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44088</v>
+      <c r="A22" s="15">
+        <v>44158</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>14286</v>
+        <v>15280</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="14"/>
-        <v>200</v>
+        <f t="shared" si="13"/>
+        <v>726</v>
       </c>
       <c r="E22" s="5">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="13"/>
-        <v>942</v>
+        <f t="shared" ref="F22:F37" si="18">D22*E22</f>
+        <v>3419.46</v>
       </c>
       <c r="G22" s="9">
         <f>SUM(F22,F23)</f>
-        <v>1197</v>
+        <v>4164.0599999999995</v>
       </c>
       <c r="H22" s="9">
-        <v>1197</v>
+        <v>4164.0600000000004</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1104,49 +1104,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>5957</v>
+        <v>6349</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="14"/>
-        <v>100</v>
+        <f t="shared" ref="D23:D37" si="19">C23-C25</f>
+        <v>292</v>
       </c>
       <c r="E23" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="13"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="18"/>
+        <v>744.59999999999991</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44060</v>
+        <v>44123</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>14086</v>
+        <v>14554</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="14"/>
-        <v>200</v>
-      </c>
-      <c r="E24" s="19">
+        <f t="shared" si="19"/>
+        <v>268</v>
+      </c>
+      <c r="E24" s="5">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="13"/>
-        <v>942</v>
+        <f t="shared" si="18"/>
+        <v>1262.28</v>
       </c>
       <c r="G24" s="9">
         <f>SUM(F24,F25)</f>
-        <v>1069.5</v>
+        <v>1517.28</v>
       </c>
       <c r="H24" s="9">
-        <v>1069.5</v>
+        <v>1517.28</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,49 +1155,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>5857</v>
+        <v>6057</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-      <c r="E25" s="19">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="E25" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="13"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="18"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44021</v>
+        <v>44088</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>13886</v>
+        <v>14286</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
       <c r="E26" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="13"/>
-        <v>898</v>
+        <f t="shared" si="18"/>
+        <v>942</v>
       </c>
       <c r="G26" s="9">
         <f>SUM(F26,F27)</f>
-        <v>1019.5</v>
+        <v>1197</v>
       </c>
       <c r="H26" s="9">
-        <v>1019.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,49 +1206,49 @@
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>5807</v>
+        <v>5957</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="14"/>
-        <v>50</v>
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
       <c r="E27" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="13"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="18"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44014</v>
+        <v>44060</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>13686</v>
+        <v>14086</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
-      <c r="E28" s="5">
-        <v>4.49</v>
+      <c r="E28" s="19">
+        <v>4.71</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="13"/>
-        <v>898</v>
+        <f t="shared" si="18"/>
+        <v>942</v>
       </c>
       <c r="G28" s="9">
         <f>SUM(F28,F29)</f>
-        <v>1384</v>
+        <v>1069.5</v>
       </c>
       <c r="H28" s="9">
-        <v>1384</v>
+        <v>1069.5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,49 +1257,49 @@
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>5757</v>
+        <v>5857</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="14"/>
-        <v>200</v>
-      </c>
-      <c r="E29" s="5">
-        <v>2.4300000000000002</v>
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="13"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="18"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>43963</v>
+        <v>44021</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>13486</v>
+        <v>13886</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="14"/>
-        <v>786</v>
+        <f t="shared" si="19"/>
+        <v>200</v>
       </c>
       <c r="E30" s="5">
         <v>4.49</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="13"/>
-        <v>3529.1400000000003</v>
+        <f t="shared" si="18"/>
+        <v>898</v>
       </c>
       <c r="G30" s="9">
         <f>SUM(F30,F31)</f>
-        <v>4712.55</v>
+        <v>1019.5</v>
       </c>
       <c r="H30" s="9">
-        <v>4712.55</v>
+        <v>1019.5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1308,49 +1308,49 @@
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>5557</v>
+        <v>5807</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="14"/>
-        <v>487</v>
+        <f t="shared" si="19"/>
+        <v>50</v>
       </c>
       <c r="E31" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="13"/>
-        <v>1183.4100000000001</v>
+        <f t="shared" si="18"/>
+        <v>121.50000000000001</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>43910</v>
+        <v>44014</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>12700</v>
+        <v>13686</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="14"/>
-        <v>840</v>
+        <f t="shared" si="19"/>
+        <v>200</v>
       </c>
       <c r="E32" s="5">
         <v>4.49</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="13"/>
-        <v>3771.6000000000004</v>
+        <f t="shared" si="18"/>
+        <v>898</v>
       </c>
       <c r="G32" s="9">
         <f>SUM(F32,F33)</f>
-        <v>4588.08</v>
+        <v>1384</v>
       </c>
       <c r="H32" s="9">
-        <v>4588.08</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1359,67 +1359,169 @@
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>5070</v>
+        <v>5757</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="14"/>
-        <v>336</v>
+        <f t="shared" si="19"/>
+        <v>200</v>
       </c>
       <c r="E33" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="13"/>
-        <v>816.48</v>
+        <f t="shared" si="18"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>13486</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="19"/>
+        <v>786</v>
+      </c>
+      <c r="E34" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="18"/>
+        <v>3529.1400000000003</v>
+      </c>
+      <c r="G34" s="9">
+        <f>SUM(F34,F35)</f>
+        <v>4712.55</v>
+      </c>
+      <c r="H34" s="9">
+        <v>4712.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5557</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="19"/>
+        <v>487</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="18"/>
+        <v>1183.4100000000001</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>12700</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="19"/>
+        <v>840</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="18"/>
+        <v>3771.6000000000004</v>
+      </c>
+      <c r="G36" s="9">
+        <f>SUM(F36,F37)</f>
+        <v>4588.08</v>
+      </c>
+      <c r="H36" s="9">
+        <v>4588.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5070</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="19"/>
+        <v>336</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="18"/>
+        <v>816.48</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
         <v>43902</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="17">
+      <c r="B38" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="17">
         <v>11860</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="17">
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17">
         <v>4734</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G36" s="9">
-        <f>SUM(G2:G35)</f>
-        <v>47486.13</v>
-      </c>
-      <c r="H36" s="9">
-        <f>SUM(H2:H35)</f>
-        <v>47486.130000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="18"/>
-      <c r="H37" s="9">
-        <f>SUM(H36,-G36)</f>
-        <v>7.2759576141834259E-12</v>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="9">
+        <f>SUM(G2:G39)</f>
+        <v>56935.49</v>
+      </c>
+      <c r="H40" s="9">
+        <f>SUM(H2:H39)</f>
+        <v>56444.450000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="18"/>
+      <c r="H41" s="9">
+        <f>SUM(H40,-G40)</f>
+        <v>-491.0399999999936</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/111ee.xlsx
+++ b/sputnik/personal/ee/111ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -514,10 +514,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -563,31 +563,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44501</v>
+        <v>44543</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>21437</v>
+        <v>22629</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>1383</v>
+        <v>1192</v>
       </c>
       <c r="E2" s="5">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>6859.68</v>
+        <v>5912.32</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2,F3)</f>
-        <v>8328.32</v>
+        <v>7405.08</v>
       </c>
       <c r="H2" s="20">
-        <v>8328.32</v>
+        <v>7405.08</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -596,49 +596,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>9351</v>
+        <v>9908</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="E3" s="5">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>1468.64</v>
+        <v>1492.76</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>20054</v>
+        <v>21437</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>199</v>
+        <v>1383</v>
       </c>
       <c r="E4" s="5">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4" si="3">D4*E4</f>
-        <v>987.04</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>6859.68</v>
       </c>
       <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
-        <v>1121.04</v>
+        <v>8328.32</v>
       </c>
       <c r="H4" s="20">
-        <v>630</v>
+        <v>8328.32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -647,47 +647,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>8803</v>
+        <v>9351</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>548</v>
       </c>
       <c r="E5" s="5">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5" si="4">D5*E5</f>
-        <v>134</v>
+        <f t="shared" si="3"/>
+        <v>1468.64</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10">
-        <v>19855</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>20054</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D7" si="4">C6-C8</f>
+        <v>199</v>
       </c>
       <c r="E6" s="5">
         <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <f t="shared" ref="F6" si="5">D6*E6</f>
+        <v>987.04</v>
       </c>
       <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
-        <v>0</v>
+        <v>1121.04</v>
       </c>
       <c r="H6" s="20">
-        <v>911.7</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -696,25 +698,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>8753</v>
+        <v>8803</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="E7" s="5">
         <v>2.68</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7" si="6">D7*E7</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44431</v>
+        <v>44445</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -722,23 +724,21 @@
       <c r="C8" s="10">
         <v>19855</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="7">C8-C10</f>
-        <v>217</v>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <v>4.96</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="8">D8*E8</f>
-        <v>1076.32</v>
+        <v>0</v>
       </c>
       <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
-        <v>1306.8</v>
+        <v>0</v>
       </c>
       <c r="H8" s="20">
-        <v>1306.8</v>
+        <v>911.7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -750,46 +750,46 @@
         <v>8753</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="7"/>
-        <v>86</v>
+        <f t="shared" ref="D9" si="7">C9-C11</f>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
         <v>2.68</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="8"/>
-        <v>230.48000000000002</v>
+        <f t="shared" ref="F9" si="8">D9*E9</f>
+        <v>0</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
-        <v>19638</v>
+      <c r="C10" s="10">
+        <v>19855</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ref="D10:D11" si="9">C10-C12</f>
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="E10" s="5">
         <v>4.96</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="10">D10*E10</f>
-        <v>1517.76</v>
+        <v>1076.32</v>
       </c>
       <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
-        <v>1801.8400000000001</v>
+        <v>1306.8</v>
       </c>
       <c r="H10" s="20">
-        <v>1801.84</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -797,50 +797,50 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
-        <v>8667</v>
+      <c r="C11" s="10">
+        <v>8753</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="9"/>
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E11" s="5">
         <v>2.68</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="10"/>
-        <v>284.08000000000004</v>
+        <v>230.48000000000002</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>44335</v>
+        <v>44389</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>19332</v>
+        <v>19638</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ref="D12:D13" si="11">C12-C14</f>
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="E12" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="12">D12*E12</f>
-        <v>2571.66</v>
-      </c>
-      <c r="G12" s="13">
+        <v>1517.76</v>
+      </c>
+      <c r="G12" s="9">
         <f>SUM(F12,F13)</f>
-        <v>3260.16</v>
-      </c>
-      <c r="H12" s="13">
-        <v>3107.64</v>
+        <v>1801.8400000000001</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1801.84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -849,49 +849,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>8561</v>
+        <v>8667</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="11"/>
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="E13" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="12"/>
-        <v>688.5</v>
+        <v>284.08000000000004</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>44301</v>
+        <v>44335</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>18786</v>
+        <v>19332</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D22" si="13">C14-C16</f>
-        <v>752</v>
+        <f t="shared" ref="D14:D15" si="13">C14-C16</f>
+        <v>546</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="14">D14*E14</f>
-        <v>3541.92</v>
+        <v>2571.66</v>
       </c>
       <c r="G14" s="13">
         <f>SUM(F14,F15)</f>
-        <v>4633.32</v>
+        <v>3260.16</v>
       </c>
       <c r="H14" s="13">
-        <v>4416.5200000000004</v>
+        <v>3107.64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -900,49 +900,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>8291</v>
+        <v>8561</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="13"/>
-        <v>428</v>
+        <v>270</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="14"/>
-        <v>1091.3999999999999</v>
+        <v>688.5</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>44267</v>
+        <v>44301</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>18034</v>
+        <v>18786</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="13"/>
-        <v>912</v>
+        <f t="shared" ref="D16:D24" si="15">C16-C18</f>
+        <v>752</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="15">D16*E16</f>
-        <v>4295.5199999999995</v>
+        <f t="shared" ref="F16:F17" si="16">D16*E16</f>
+        <v>3541.92</v>
       </c>
       <c r="G16" s="13">
         <f>SUM(F16,F17)</f>
-        <v>5585.82</v>
+        <v>4633.32</v>
       </c>
       <c r="H16" s="13">
-        <v>5324.46</v>
+        <v>4416.5200000000004</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -951,49 +951,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>7863</v>
+        <v>8291</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="13"/>
-        <v>506</v>
+        <f t="shared" si="15"/>
+        <v>428</v>
       </c>
       <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="15"/>
-        <v>1290.3</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+        <f t="shared" si="16"/>
+        <v>1091.3999999999999</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <v>44236</v>
+        <v>44267</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>17122</v>
+        <v>18034</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="13"/>
-        <v>1003</v>
+        <f t="shared" si="15"/>
+        <v>912</v>
       </c>
       <c r="E18" s="5">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>4724.13</v>
+        <f t="shared" ref="F18:F19" si="17">D18*E18</f>
+        <v>4295.5199999999995</v>
       </c>
       <c r="G18" s="13">
         <f>SUM(F18,F19)</f>
-        <v>6006.78</v>
+        <v>5585.82</v>
       </c>
       <c r="H18" s="13">
-        <v>5725.76</v>
+        <v>5324.46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1002,49 +1002,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>7357</v>
+        <v>7863</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="13"/>
-        <v>503</v>
+        <f t="shared" si="15"/>
+        <v>506</v>
       </c>
       <c r="E19" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="16"/>
-        <v>1282.6499999999999</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="20"/>
+        <f t="shared" si="17"/>
+        <v>1290.3</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>44200</v>
+        <v>44236</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>16119</v>
+        <v>17122</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="13"/>
-        <v>839</v>
+        <f t="shared" si="15"/>
+        <v>1003</v>
       </c>
       <c r="E20" s="5">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
-        <v>3951.69</v>
-      </c>
-      <c r="G20" s="9">
+        <f t="shared" ref="F20:F21" si="18">D20*E20</f>
+        <v>4724.13</v>
+      </c>
+      <c r="G20" s="13">
         <f>SUM(F20,F21)</f>
-        <v>5239.4400000000005</v>
-      </c>
-      <c r="H20" s="9">
-        <v>5239.4399999999996</v>
+        <v>6006.78</v>
+      </c>
+      <c r="H20" s="13">
+        <v>5725.76</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1053,49 +1053,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>6854</v>
+        <v>7357</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="13"/>
-        <v>505</v>
+        <f t="shared" si="15"/>
+        <v>503</v>
       </c>
       <c r="E21" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="17"/>
-        <v>1287.75</v>
+        <f t="shared" si="18"/>
+        <v>1282.6499999999999</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <v>44158</v>
+        <v>44200</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>15280</v>
+        <v>16119</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="13"/>
-        <v>726</v>
+        <f t="shared" si="15"/>
+        <v>839</v>
       </c>
       <c r="E22" s="5">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22:F37" si="18">D22*E22</f>
-        <v>3419.46</v>
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>3951.69</v>
       </c>
       <c r="G22" s="9">
         <f>SUM(F22,F23)</f>
-        <v>4164.0599999999995</v>
+        <v>5239.4400000000005</v>
       </c>
       <c r="H22" s="9">
-        <v>4164.0600000000004</v>
+        <v>5239.4399999999996</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1104,49 +1104,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>6349</v>
+        <v>6854</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D37" si="19">C23-C25</f>
-        <v>292</v>
+        <f t="shared" si="15"/>
+        <v>505</v>
       </c>
       <c r="E23" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="18"/>
-        <v>744.59999999999991</v>
+        <f t="shared" si="19"/>
+        <v>1287.75</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>44123</v>
+      <c r="A24" s="15">
+        <v>44158</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>14554</v>
+        <v>15280</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="19"/>
-        <v>268</v>
+        <f t="shared" si="15"/>
+        <v>726</v>
       </c>
       <c r="E24" s="5">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="18"/>
-        <v>1262.28</v>
+        <f t="shared" ref="F24:F39" si="20">D24*E24</f>
+        <v>3419.46</v>
       </c>
       <c r="G24" s="9">
         <f>SUM(F24,F25)</f>
-        <v>1517.28</v>
+        <v>4164.0599999999995</v>
       </c>
       <c r="H24" s="9">
-        <v>1517.28</v>
+        <v>4164.0600000000004</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,49 +1155,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>6057</v>
+        <v>6349</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="19"/>
-        <v>100</v>
+        <f t="shared" ref="D25:D39" si="21">C25-C27</f>
+        <v>292</v>
       </c>
       <c r="E25" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="18"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="20"/>
+        <v>744.59999999999991</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44088</v>
+        <v>44123</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>14286</v>
+        <v>14554</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="19"/>
-        <v>200</v>
+        <f t="shared" si="21"/>
+        <v>268</v>
       </c>
       <c r="E26" s="5">
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="18"/>
-        <v>942</v>
+        <f t="shared" si="20"/>
+        <v>1262.28</v>
       </c>
       <c r="G26" s="9">
         <f>SUM(F26,F27)</f>
-        <v>1197</v>
+        <v>1517.28</v>
       </c>
       <c r="H26" s="9">
-        <v>1197</v>
+        <v>1517.28</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,17 +1206,17 @@
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>5957</v>
+        <v>6057</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="E27" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G27" s="9"/>
@@ -1224,31 +1224,31 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44060</v>
+        <v>44088</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>14086</v>
+        <v>14286</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="5">
         <v>4.71</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>942</v>
       </c>
       <c r="G28" s="9">
         <f>SUM(F28,F29)</f>
-        <v>1069.5</v>
+        <v>1197</v>
       </c>
       <c r="H28" s="9">
-        <v>1069.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,49 +1257,49 @@
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>5857</v>
+        <v>5957</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="19"/>
-        <v>50</v>
-      </c>
-      <c r="E29" s="19">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="E29" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="18"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="20"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44021</v>
+        <v>44060</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>13886</v>
+        <v>14086</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
-      <c r="E30" s="5">
-        <v>4.49</v>
+      <c r="E30" s="19">
+        <v>4.71</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="18"/>
-        <v>898</v>
+        <f t="shared" si="20"/>
+        <v>942</v>
       </c>
       <c r="G30" s="9">
         <f>SUM(F30,F31)</f>
-        <v>1019.5</v>
+        <v>1069.5</v>
       </c>
       <c r="H30" s="9">
-        <v>1019.5</v>
+        <v>1069.5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1308,49 +1308,49 @@
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>5807</v>
+        <v>5857</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
-      <c r="E31" s="5">
-        <v>2.4300000000000002</v>
+      <c r="E31" s="19">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="18"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="20"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44014</v>
+        <v>44021</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>13686</v>
+        <v>13886</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="E32" s="5">
         <v>4.49</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>898</v>
       </c>
       <c r="G32" s="9">
         <f>SUM(F32,F33)</f>
-        <v>1384</v>
+        <v>1019.5</v>
       </c>
       <c r="H32" s="9">
-        <v>1384</v>
+        <v>1019.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1359,49 +1359,49 @@
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>5757</v>
+        <v>5807</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="19"/>
-        <v>200</v>
+        <f t="shared" si="21"/>
+        <v>50</v>
       </c>
       <c r="E33" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="18"/>
-        <v>486.00000000000006</v>
+        <f t="shared" si="20"/>
+        <v>121.50000000000001</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>43963</v>
+        <v>44014</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="2">
-        <v>13486</v>
+        <v>13686</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="19"/>
-        <v>786</v>
+        <f t="shared" si="21"/>
+        <v>200</v>
       </c>
       <c r="E34" s="5">
         <v>4.49</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="18"/>
-        <v>3529.1400000000003</v>
+        <f t="shared" si="20"/>
+        <v>898</v>
       </c>
       <c r="G34" s="9">
         <f>SUM(F34,F35)</f>
-        <v>4712.55</v>
+        <v>1384</v>
       </c>
       <c r="H34" s="9">
-        <v>4712.55</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,49 +1410,49 @@
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>5557</v>
+        <v>5757</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="19"/>
-        <v>487</v>
+        <f t="shared" si="21"/>
+        <v>200</v>
       </c>
       <c r="E35" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="18"/>
-        <v>1183.4100000000001</v>
+        <f t="shared" si="20"/>
+        <v>486.00000000000006</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>43910</v>
+        <v>43963</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>12700</v>
+        <v>13486</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="19"/>
-        <v>840</v>
+        <f t="shared" si="21"/>
+        <v>786</v>
       </c>
       <c r="E36" s="5">
         <v>4.49</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="18"/>
-        <v>3771.6000000000004</v>
+        <f t="shared" si="20"/>
+        <v>3529.1400000000003</v>
       </c>
       <c r="G36" s="9">
         <f>SUM(F36,F37)</f>
-        <v>4588.08</v>
+        <v>4712.55</v>
       </c>
       <c r="H36" s="9">
-        <v>4588.08</v>
+        <v>4712.55</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1461,66 +1461,117 @@
         <v>1</v>
       </c>
       <c r="C37" s="2">
-        <v>5070</v>
+        <v>5557</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="19"/>
-        <v>336</v>
+        <f t="shared" si="21"/>
+        <v>487</v>
       </c>
       <c r="E37" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="18"/>
-        <v>816.48</v>
+        <f t="shared" si="20"/>
+        <v>1183.4100000000001</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>12700</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="21"/>
+        <v>840</v>
+      </c>
+      <c r="E38" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="20"/>
+        <v>3771.6000000000004</v>
+      </c>
+      <c r="G38" s="9">
+        <f>SUM(F38,F39)</f>
+        <v>4588.08</v>
+      </c>
+      <c r="H38" s="9">
+        <v>4588.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5070</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="21"/>
+        <v>336</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="20"/>
+        <v>816.48</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
         <v>43902</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="17">
+      <c r="B40" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="17">
         <v>11860</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="17">
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="17">
         <v>4734</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G40" s="9">
-        <f>SUM(G2:G39)</f>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="9">
+        <f>SUM(G4:G41)</f>
         <v>56935.49</v>
       </c>
-      <c r="H40" s="9">
-        <f>SUM(H2:H39)</f>
+      <c r="H42" s="9">
+        <f>SUM(H4:H41)</f>
         <v>56444.450000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G41" s="18"/>
-      <c r="H41" s="9">
-        <f>SUM(H40,-G40)</f>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="18"/>
+      <c r="H43" s="9">
+        <f>SUM(H42,-G42)</f>
         <v>-491.0399999999936</v>
       </c>
     </row>
